--- a/01_Assembly/010 mul_imul乘法.xlsx
+++ b/01_Assembly/010 mul_imul乘法.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\01_Assembly\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0843C2EE-FBD2-4877-B99E-96BD8430A914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,60 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>16位寄存器相乘，超出的部分计入 edx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32位寄存器相乘，超出的部分计入 edx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、mul指令 [格式 mul reg]，将寄存器中的值与eax中的相乘并存在eax中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、imul指令 [格式 imul reg, reg; imul reg,num]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +101,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +120,275 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390171</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114205</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C664C6F-18AD-67AA-5EC6-1F8DF78B0BFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="579120"/>
+          <a:ext cx="2828571" cy="761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266362</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>5635</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE33238E-7489-736E-0EB8-F067B82F018D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="594360"/>
+          <a:ext cx="2704762" cy="638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323505</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66605</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{163AC071-8BB7-2CE5-BE15-8BFCE03702D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="1783080"/>
+          <a:ext cx="2761905" cy="561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>344461</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>146612</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30B504F8-A891-44F5-6DF4-F122A94F1317}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1249680" y="2918460"/>
+          <a:ext cx="2752381" cy="580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371129</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68513</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5FA6587-D180-178A-CD27-9C7A617B19C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257300" y="3962400"/>
+          <a:ext cx="2771429" cy="533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333029</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>59004</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{737057D6-032E-405E-E7A5-9BC39257AE99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="3901440"/>
+          <a:ext cx="2771429" cy="409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +653,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>